--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146096.1743083379</v>
+        <v>25251743.71105923</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146096.1743083379</v>
+        <v>25251743.71105923</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7272.799049856141</v>
+        <v>746064.3994573354</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7272.799049856141</v>
+        <v>746064.3994573354</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188069696.818432</v>
+        <v>47470519.57998927</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8453.762625642104</v>
+        <v>975081.9372212227</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16888.8058130242</v>
+        <v>1946438.706228701</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25323.84900040627</v>
+        <v>2917795.475236181</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33950.78785868275</v>
+        <v>3892124.652361963</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42567.52024067047</v>
+        <v>4864422.740706281</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51184.25262265847</v>
+        <v>5836720.829050571</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59800.98500464647</v>
+        <v>6809018.917394853</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68417.71738663421</v>
+        <v>7781317.005739174</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77056.52582750109</v>
+        <v>8733426.056459466</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>85507.08233124811</v>
+        <v>9703025.78391156</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>93926.51121319</v>
+        <v>10671354.52472383</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>102204.1184083657</v>
+        <v>11642726.06957131</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>110481.7256035414</v>
+        <v>12614097.6144188</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119328.0094009978</v>
+        <v>13533965.56430657</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>128422.2657109445</v>
+        <v>14420242.4360501</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>82</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>367.000000000041</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>81.99999999995902</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>363.000000000041</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>188</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
